--- a/驱动程序与钱包/统一错误码.xlsx
+++ b/驱动程序与钱包/统一错误码.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{947D2BF1-C348-4267-8D24-52F0105C299E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7B81C88F-B086-48A5-A0D6-2C13BB42DE2B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>错误码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +131,14 @@
   </si>
   <si>
     <t>等待超时，设备未响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插件类型错误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,13 +465,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="27.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -499,136 +510,141 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
+      <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
+      <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
@@ -657,10 +673,22 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/驱动程序与钱包/统一错误码.xlsx
+++ b/驱动程序与钱包/统一错误码.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7B81C88F-B086-48A5-A0D6-2C13BB42DE2B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{68646D29-F094-4036-B000-C629CF16AC60}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>错误码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +139,14 @@
   </si>
   <si>
     <t>插件类型错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0303</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签名数据包错误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,7 +476,7 @@
   <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -587,7 +595,12 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
